--- a/documents/蓋ざんまい.xlsx
+++ b/documents/蓋ざんまい.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF56D2B4-8F46-0A46-9FAB-C9E84FFEB4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21160" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>オーキド</t>
     <phoneticPr fontId="1"/>
@@ -239,11 +240,99 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アオキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シマノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シオバラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トビタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉工大</t>
+    <rPh sb="0" eb="4">
+      <t>チバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マサキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タカノブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タカギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナガイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理科大</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲荷</t>
+    <rPh sb="0" eb="2">
+      <t>イナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マエカワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カザマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミカワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とおる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蓋世</t>
+    <rPh sb="0" eb="2">
+      <t>ガイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -299,6 +388,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,9 +474,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,6 +526,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,26 +719,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <pane xSplit="1520" ySplit="1340" topLeftCell="A7" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:A38"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="5" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="4" max="5" width="3.1640625" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="3.25" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="3.25" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="44.25" customHeight="1">
+    <row r="1" spans="1:11" ht="45">
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1300,11 +1436,581 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2"/>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2"/>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,12 +2019,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1327,12 +2033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/蓋ざんまい.xlsx
+++ b/documents/蓋ざんまい.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF56D2B4-8F46-0A46-9FAB-C9E84FFEB4E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21160" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>オーキド</t>
     <phoneticPr fontId="1"/>
@@ -328,11 +327,75 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>キャライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小澤</t>
+    <rPh sb="0" eb="2">
+      <t>オザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あしゅ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アキボー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tommy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おぎたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習院</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九ララ</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨシモト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マツダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨコヅカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奈良</t>
+    <rPh sb="0" eb="2">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -350,12 +413,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,14 +483,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,27 +606,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,24 +640,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -719,29 +815,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1520" ySplit="1340" topLeftCell="A7" activePane="bottomRight"/>
+      <pane xSplit="1515" ySplit="1080" topLeftCell="A19" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:A38"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="5" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="5" width="3.125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="3.125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" customWidth="1"/>
+    <col min="9" max="9" width="3.125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="11" max="11" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45">
+    <row r="1" spans="1:11" ht="40.5">
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
@@ -771,7 +867,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -806,7 +902,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -839,7 +935,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -872,7 +968,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -905,7 +1001,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -938,7 +1034,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -971,7 +1067,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1100,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -1039,7 +1135,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1168,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1201,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1234,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1171,7 +1267,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
@@ -1206,7 +1302,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1239,7 +1335,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1368,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1401,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1434,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -1371,7 +1467,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1500,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1533,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
@@ -1472,7 +1568,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -1505,7 +1601,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2"/>
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1538,7 +1634,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1571,7 +1667,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1700,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B27" t="s">
@@ -1639,7 +1735,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -1672,7 +1768,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -1705,7 +1801,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -1738,7 +1834,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="2"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -1771,7 +1867,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B32" t="s">
@@ -1806,7 +1902,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>44</v>
       </c>
@@ -1839,7 +1935,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>45</v>
       </c>
@@ -1872,7 +1968,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
         <v>46</v>
       </c>
@@ -1905,7 +2001,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>47</v>
       </c>
@@ -1938,7 +2034,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2"/>
+      <c r="A37" s="8"/>
       <c r="B37" t="s">
         <v>48</v>
       </c>
@@ -1971,7 +2067,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2"/>
+      <c r="A38" s="8"/>
       <c r="B38" t="s">
         <v>49</v>
       </c>
@@ -2003,8 +2099,377 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>34</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>12</v>
+      </c>
+      <c r="I49">
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A49"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -2019,12 +2484,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,12 +2498,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
